--- a/OutputFiles/TC01_Canine_Filter_Diagnosis-BoneSarcoma_Neo4jData.xlsx
+++ b/OutputFiles/TC01_Canine_Filter_Diagnosis-BoneSarcoma_Neo4jData.xlsx
@@ -42,7 +42,7 @@
     <t>Output:</t>
   </si>
   <si>
-    <t>C:\Users\radhakrishnang2\Desktop\DataCommons_Automation\ICDC_Automation\OutputFiles\TC01_Canine_Filter_Diagnosis-BoneSarcoma_Neo4jData.xlsx</t>
+    <t>C:\Users\radhakrishnang2\Desktop\Commons_Automation\OutputFiles\TC01_Canine_Filter_Diagnosis-BoneSarcoma_Neo4jData.xlsx</t>
   </si>
 </sst>
 </file>

--- a/OutputFiles/TC01_Canine_Filter_Diagnosis-BoneSarcoma_Neo4jData.xlsx
+++ b/OutputFiles/TC01_Canine_Filter_Diagnosis-BoneSarcoma_Neo4jData.xlsx
@@ -8,12 +8,15 @@
   <sheets>
     <sheet name="CypherOutput" r:id="rId3" sheetId="1"/>
     <sheet name="Message" r:id="rId4" sheetId="2"/>
+    <sheet name="CypherOutput_Message" r:id="rId5" sheetId="3"/>
+    <sheet name="StatOutput" r:id="rId6" sheetId="4"/>
+    <sheet name="StatOutput_Message" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="62">
   <si>
     <t>Neo4j_URL:</t>
   </si>
@@ -43,6 +46,162 @@
   </si>
   <si>
     <t>C:\Users\radhakrishnang2\Desktop\Commons_Automation\OutputFiles\TC01_Canine_Filter_Diagnosis-BoneSarcoma_Neo4jData.xlsx</t>
+  </si>
+  <si>
+    <t>Case ID</t>
+  </si>
+  <si>
+    <t>Study Code</t>
+  </si>
+  <si>
+    <t>Study Type</t>
+  </si>
+  <si>
+    <t>Breed</t>
+  </si>
+  <si>
+    <t>Diagnosis</t>
+  </si>
+  <si>
+    <t>Stage of Disease</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Neutered Status</t>
+  </si>
+  <si>
+    <t>NCATS-COP01CCB030035</t>
+  </si>
+  <si>
+    <t>NCATS-COP01</t>
+  </si>
+  <si>
+    <t>Transcriptomics</t>
+  </si>
+  <si>
+    <t>Saint Bernard</t>
+  </si>
+  <si>
+    <t>Bone sarcomas :: Osteosarcoma (appendicular)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>NCATS-COP01CCB020026</t>
+  </si>
+  <si>
+    <t>Greyhound</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>NCATS-COP01CCB020027</t>
+  </si>
+  <si>
+    <t>German Shepherd Dog</t>
+  </si>
+  <si>
+    <t>NCATS-COP01CCB070013</t>
+  </si>
+  <si>
+    <t>Rottweiler</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>NCATS-COP01CCB020018</t>
+  </si>
+  <si>
+    <t>Mixed Breed</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>NCATS-COP01CCB050022</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>NCATS-COP01CCB030078</t>
+  </si>
+  <si>
+    <t>Golden Retriever</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>NCATS-COP01CCB070003</t>
+  </si>
+  <si>
+    <t>German Shorthaired Pointer</t>
+  </si>
+  <si>
+    <t>NCATS-COP01CCB030077</t>
+  </si>
+  <si>
+    <t>NCATS-COP01CCB010072</t>
+  </si>
+  <si>
+    <t>Akita</t>
+  </si>
+  <si>
+    <t>NCATS-COP01CCB030064</t>
+  </si>
+  <si>
+    <t>Labrador Retriever</t>
+  </si>
+  <si>
+    <t>NCATS-COP01CCB010091</t>
+  </si>
+  <si>
+    <t>MATCH (s:study) WITH COLLECT(DISTINCT(s.clinical_study_designation)) AS all_studies MATCH (d:demographic) WITH COLLECT(DISTINCT(d.breed)) AS all_breeds, COLLECT(DISTINCT(d.sex)) AS all_sexes, all_studies MATCH (d:diagnosis) WITH COLLECT(DISTINCT(d.disease_term)) AS all_diseases, all_breeds, all_sexes, all_studies MATCH (p:program)&lt;-[*]-(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis) WHERE diag.disease_term IN ['Bone sarcomas :: Osteosarcoma (appendicular)'] WITH DISTINCT c AS c, p, s, demo, diag RETURN coalesce(c.case_id,'') AS `Case ID` , coalesce(s.clinical_study_designation,'') AS `Study Code` , coalesce(s.clinical_study_type,'') AS  `Study Type`, coalesce(demo.breed,'') AS Breed , coalesce(diag.disease_term,'') AS Diagnosis , coalesce(diag.stage_of_disease,'') AS `Stage of Disease` ,  coalesce(demo.patient_age_at_enrollment,'') AS Age , coalesce(demo.sex,'') AS Sex , coalesce(demo.neutered_indicator,'') AS  `Neutered Status`</t>
+  </si>
+  <si>
+    <t>number_of_files</t>
+  </si>
+  <si>
+    <t>number_of_sample</t>
+  </si>
+  <si>
+    <t>number_of_cases</t>
+  </si>
+  <si>
+    <t>number_of_study</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>MATCH (s:study) WITH COLLECT(DISTINCT(s.clinical_study_designation)) AS all_studies MATCH (d:demographic) WITH COLLECT(DISTINCT(d.breed)) AS all_breeds, COLLECT(DISTINCT(d.sex)) AS all_sexes, all_studies MATCH (d:diagnosis) WITH COLLECT(DISTINCT(d.disease_term)) AS all_diseases, all_breeds, all_sexes, all_studies MATCH (p:program)&lt;-[*]-(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis) WHERE diag.disease_term IN['Bone sarcomas :: Osteosarcoma (appendicular)']  OPTIONAL MATCH (f:file)-[*]-&gt;(c), (samp:sample)-[*]-&gt;(c) WITH DISTINCT c AS c, p, s, demo, diag, f, samp RETURN count(DISTINCT(f)) as number_of_files , count(DISTINCT(samp)) as number_of_sample , count(DISTINCT(c.case_id)) as number_of_cases , count(DISTINCT(s.clinical_study_designation)) as number_of_study</t>
   </si>
 </sst>
 </file>
@@ -77,23 +236,399 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -160,4 +695,221 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>